--- a/files/rating_change/2024#90.xlsx
+++ b/files/rating_change/2024#90.xlsx
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1577</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>1619</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1673</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>1674</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="4">
@@ -496,13 +496,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1673</v>
+        <v>1500</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>1674</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1673</v>
+        <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>-40</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>1633</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="6">
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1577</v>
+        <v>1500</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>1578</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1524</v>
+        <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="8">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1524</v>
+        <v>1500</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="9">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1524</v>
+        <v>1500</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="n">
-        <v>1487</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="11">
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="n">
-        <v>1487</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="12">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1468</v>
+        <v>1500</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="E12" t="n">
-        <v>1469</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="13">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1447</v>
+        <v>1500</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="E13" t="n">
-        <v>1448</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="14">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1447</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="E14" t="n">
-        <v>1448</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="15">
@@ -705,13 +705,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1447</v>
+        <v>1500</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="E15" t="n">
-        <v>1448</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="16">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1424</v>
+        <v>1500</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-38</v>
       </c>
       <c r="E16" t="n">
-        <v>1425</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="17">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1424</v>
+        <v>1500</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-38</v>
       </c>
       <c r="E17" t="n">
-        <v>1425</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="18">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1405</v>
+        <v>1500</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E18" t="n">
-        <v>1405</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="19">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1405</v>
+        <v>1500</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E19" t="n">
-        <v>1405</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="20">
@@ -800,13 +800,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1405</v>
+        <v>1500</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E20" t="n">
-        <v>1405</v>
+        <v>1450</v>
       </c>
     </row>
   </sheetData>

--- a/files/rating_change/2024#90.xlsx
+++ b/files/rating_change/2024#90.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>张宇</t>
+          <t>罗豪</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -511,7 +511,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>罗豪</t>
+          <t>张宇</t>
         </is>
       </c>
       <c r="C5" t="n">
